--- a/data/trans_orig/P1427-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4688</v>
+        <v>4667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002054526733225369</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01032259205927989</v>
+        <v>0.01027633550518099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5584</v>
+        <v>4665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001055043846370896</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00631395790611736</v>
+        <v>0.00527506563575305</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +806,7 @@
         <v>453213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449458</v>
+        <v>449479</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -815,7 +815,7 @@
         <v>0.9979454732667746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9896774079407201</v>
+        <v>0.989723664494819</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>883443</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878792</v>
+        <v>879711</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -849,7 +849,7 @@
         <v>0.9989449561536291</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9936860420938826</v>
+        <v>0.9947249343642469</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5260</v>
+        <v>5951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001711038297771506</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008618575236068767</v>
+        <v>0.009751899264187795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5272</v>
+        <v>5734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.000804853319098008</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004063423297090585</v>
+        <v>0.004419528395565294</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>609211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604995</v>
+        <v>604304</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>610255</v>
@@ -1029,7 +1029,7 @@
         <v>0.9982889617022285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9913814247639313</v>
+        <v>0.9902481007358116</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>1296298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1292070</v>
+        <v>1291608</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -1050,7 +1050,7 @@
         <v>0.999195146680902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9959365767029095</v>
+        <v>0.9955804716044366</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1145,19 +1145,19 @@
         <v>4037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1048</v>
+        <v>932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9694</v>
+        <v>9657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005920480393602726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0015365618383885</v>
+        <v>0.001367352162407009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01421635494294722</v>
+        <v>0.01416247737831588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12553</v>
+        <v>9981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00409436299465358</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01769114276484671</v>
+        <v>0.01406636738393839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1187,19 +1187,19 @@
         <v>6942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2897</v>
+        <v>2886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15994</v>
+        <v>14957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004989237387559177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002082240314058439</v>
+        <v>0.002073981620044929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0114946305053423</v>
+        <v>0.01074913349503679</v>
       </c>
     </row>
     <row r="11">
@@ -1216,19 +1216,19 @@
         <v>677826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672169</v>
+        <v>672206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680815</v>
+        <v>680931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9940795196063973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9857836450570526</v>
+        <v>0.9858375226216839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984634381616115</v>
+        <v>0.998632647837593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1237,7 +1237,7 @@
         <v>706669</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697021</v>
+        <v>699593</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -1246,7 +1246,7 @@
         <v>0.9959056370053464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9823088572351534</v>
+        <v>0.9859336326160616</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1258,19 +1258,19 @@
         <v>1384495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1375443</v>
+        <v>1376480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388540</v>
+        <v>1388551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9950107626124408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885053694946586</v>
+        <v>0.9892508665049631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979177596859417</v>
+        <v>0.9979260183799551</v>
       </c>
     </row>
     <row r="12">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10228</v>
+        <v>11961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003908550162818355</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01664190957861993</v>
+        <v>0.01946168714029556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1383,19 +1383,19 @@
         <v>3184</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9128</v>
+        <v>9352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00518367407516204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001569627361738893</v>
+        <v>0.001566335684305575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01486084986103931</v>
+        <v>0.01522478422119652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1404,19 +1404,19 @@
         <v>5586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2066</v>
+        <v>1129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15585</v>
+        <v>14840</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004545929066288804</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001681512875832646</v>
+        <v>0.0009185694705267225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01268255028877438</v>
+        <v>0.01207593712345198</v>
       </c>
     </row>
     <row r="14">
@@ -1433,7 +1433,7 @@
         <v>612215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604389</v>
+        <v>602656</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>614617</v>
@@ -1442,7 +1442,7 @@
         <v>0.9960914498371817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9833580904213828</v>
+        <v>0.9805383128597044</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1454,19 +1454,19 @@
         <v>611080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>605136</v>
+        <v>604912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613300</v>
+        <v>613302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9948163259248379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9851391501389597</v>
+        <v>0.9847752157788033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984303726382611</v>
+        <v>0.9984336643156945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1082</v>
@@ -1475,19 +1475,19 @@
         <v>1223294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1213295</v>
+        <v>1214040</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1226814</v>
+        <v>1227751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9954540709337112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9873174497112253</v>
+        <v>0.9879240628765477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9983184871241674</v>
+        <v>0.9990814305294733</v>
       </c>
     </row>
     <row r="15">
@@ -1579,19 +1579,19 @@
         <v>9649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4285</v>
+        <v>5261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18248</v>
+        <v>18523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02246985766702094</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009979008360222634</v>
+        <v>0.01225146924331103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04249446200745612</v>
+        <v>0.04313406729683839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1600,19 +1600,19 @@
         <v>13760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7332</v>
+        <v>7654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22485</v>
+        <v>23846</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03072812995930359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01637370131239279</v>
+        <v>0.01709186664663926</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05021259656869029</v>
+        <v>0.05325157782677008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1621,19 +1621,19 @@
         <v>23409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14863</v>
+        <v>14665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34121</v>
+        <v>34032</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0266854657444897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01694257525384754</v>
+        <v>0.01671739249959202</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03889614841782157</v>
+        <v>0.03879518951449021</v>
       </c>
     </row>
     <row r="17">
@@ -1650,19 +1650,19 @@
         <v>419780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>411181</v>
+        <v>410906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>425144</v>
+        <v>424168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9775301423329791</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9575055379925438</v>
+        <v>0.9568659327031613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900209916397773</v>
+        <v>0.987748530756689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -1671,19 +1671,19 @@
         <v>434040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>425315</v>
+        <v>423954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440468</v>
+        <v>440146</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9692718700406964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9497874034313097</v>
+        <v>0.9467484221732303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9836262986876072</v>
+        <v>0.9829081333533608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>777</v>
@@ -1692,19 +1692,19 @@
         <v>853820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>843108</v>
+        <v>843197</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>862366</v>
+        <v>862564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9733145342555103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9611038515821787</v>
+        <v>0.9612048104855098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9830574247461525</v>
+        <v>0.983282607500408</v>
       </c>
     </row>
     <row r="18">
@@ -1796,19 +1796,19 @@
         <v>22103</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13946</v>
+        <v>14120</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33059</v>
+        <v>33577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07134905036916409</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04501690601020156</v>
+        <v>0.04557851632933634</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1067145234372599</v>
+        <v>0.1083871579251163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1817,19 +1817,19 @@
         <v>24822</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16615</v>
+        <v>16391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36127</v>
+        <v>36791</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07011954220391484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04693695678649286</v>
+        <v>0.04630246047414802</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1020537259916514</v>
+        <v>0.1039305515523405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1838,19 +1838,19 @@
         <v>46925</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34102</v>
+        <v>35469</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61111</v>
+        <v>61057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07069335188241795</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05137560052824554</v>
+        <v>0.05343474997436531</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09206473169718858</v>
+        <v>0.09198375741013388</v>
       </c>
     </row>
     <row r="20">
@@ -1867,19 +1867,19 @@
         <v>287683</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276727</v>
+        <v>276209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295840</v>
+        <v>295666</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9286509496308359</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.89328547656274</v>
+        <v>0.8916128420748837</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9549830939897986</v>
+        <v>0.9544214836706636</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>321</v>
@@ -1888,19 +1888,19 @@
         <v>329174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>317869</v>
+        <v>317205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>337381</v>
+        <v>337605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9298804577960852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8979462740083486</v>
+        <v>0.8960694484476592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9530630432135071</v>
+        <v>0.953697539525852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>582</v>
@@ -1909,19 +1909,19 @@
         <v>616857</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602671</v>
+        <v>602725</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>629680</v>
+        <v>628313</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.929306648117582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9079352683028115</v>
+        <v>0.9080162425898664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9486243994717545</v>
+        <v>0.9465652500256347</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>28857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18905</v>
+        <v>17971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42212</v>
+        <v>41211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1154979814114947</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07566466636146946</v>
+        <v>0.07192815717348446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.168946845505765</v>
+        <v>0.1649407157577368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2034,19 +2034,19 @@
         <v>48336</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35301</v>
+        <v>36476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63287</v>
+        <v>63201</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1242644368298602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09075264938770765</v>
+        <v>0.09377433519565824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1627011791907709</v>
+        <v>0.1624789526490517</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -2055,19 +2055,19 @@
         <v>77194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61090</v>
+        <v>60121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95189</v>
+        <v>95379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1208358143817291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09562762737431058</v>
+        <v>0.09411143913956947</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1490047464592689</v>
+        <v>0.1493021120278403</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>220994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207639</v>
+        <v>208640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230946</v>
+        <v>231880</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8845020185885053</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.831053154494235</v>
+        <v>0.8350592842422626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9243353336385305</v>
+        <v>0.9280718428265147</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>307</v>
@@ -2105,19 +2105,19 @@
         <v>340643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>325692</v>
+        <v>325778</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353678</v>
+        <v>352503</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8757355631701398</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8372988208092291</v>
+        <v>0.8375210473509481</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9092473506122922</v>
+        <v>0.9062256648043415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>504</v>
@@ -2126,19 +2126,19 @@
         <v>561636</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>543641</v>
+        <v>543451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>577740</v>
+        <v>578709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8791641856182709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.850995253540731</v>
+        <v>0.8506978879721597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9043723726256893</v>
+        <v>0.9058885608604306</v>
       </c>
     </row>
     <row r="24">
@@ -2230,19 +2230,19 @@
         <v>67982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01983836875696299</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -2251,19 +2251,19 @@
         <v>94052</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0264555038060549</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -2272,19 +2272,19 @@
         <v>162034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02320774428187131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
     </row>
     <row r="26">
@@ -2301,19 +2301,19 @@
         <v>3358797</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3340081</v>
+        <v>3339916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3374683</v>
+        <v>3375576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.980161631243037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9746998942737454</v>
+        <v>0.9746518379006918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9847974847547258</v>
+        <v>0.9850579036248954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3211</v>
@@ -2322,19 +2322,19 @@
         <v>3461046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3439759</v>
+        <v>3441223</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3478418</v>
+        <v>3478662</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9735444961939451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9675567346164079</v>
+        <v>0.9679686528159995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9784310832517176</v>
+        <v>0.9784997104097698</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6359</v>
@@ -2343,19 +2343,19 @@
         <v>6819843</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6793017</v>
+        <v>6789251</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6845177</v>
+        <v>6843259</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9767922557181287</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9729500257483259</v>
+        <v>0.9724106159849889</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9804207527885818</v>
+        <v>0.9801460672270756</v>
       </c>
     </row>
     <row r="27">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001747407443431415</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008720010089069719</v>
+        <v>0.008723468357327173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4949</v>
+        <v>4921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008532983899348783</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004288585622618505</v>
+        <v>0.004264153659856417</v>
       </c>
     </row>
     <row r="8">
@@ -2935,7 +2935,7 @@
         <v>562559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558630</v>
+        <v>558628</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -2944,7 +2944,7 @@
         <v>0.9982525925565686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9912799899109302</v>
+        <v>0.9912765316426729</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>1153055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1149091</v>
+        <v>1149119</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -2965,7 +2965,7 @@
         <v>0.9991467016100651</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9957114143773815</v>
+        <v>0.9957358463401437</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6154</v>
+        <v>6133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002670354378936175</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009304423280204147</v>
+        <v>0.009273480917005042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6194</v>
+        <v>6195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001327439574478603</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004655510211096114</v>
+        <v>0.004656028130969191</v>
       </c>
     </row>
     <row r="11">
@@ -3136,7 +3136,7 @@
         <v>659620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>655232</v>
+        <v>655253</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3145,7 +3145,7 @@
         <v>0.9973296456210639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9906955767197958</v>
+        <v>0.9907265190829949</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>1328717</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1324289</v>
+        <v>1324288</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -3166,7 +3166,7 @@
         <v>0.9986725604255214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.995344489788904</v>
+        <v>0.9953439718690307</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3274,19 +3274,19 @@
         <v>3186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8768</v>
+        <v>9482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004908589002881331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001535419452701782</v>
+        <v>0.001547289773533542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01350859855258592</v>
+        <v>0.01460897583198124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3295,19 +3295,19 @@
         <v>3186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8554</v>
+        <v>9370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002460033851078059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0007690258381540966</v>
+        <v>0.0007684713467880337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006605111297946237</v>
+        <v>0.007234621551209386</v>
       </c>
     </row>
     <row r="14">
@@ -3337,19 +3337,19 @@
         <v>645891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640309</v>
+        <v>639595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648080</v>
+        <v>648073</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9950914109971186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.986491401447416</v>
+        <v>0.9853910241680187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984645805472983</v>
+        <v>0.9984527102264665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1181</v>
@@ -3358,19 +3358,19 @@
         <v>1291939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1286571</v>
+        <v>1285755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1294129</v>
+        <v>1294130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9975399661489219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9933948887020538</v>
+        <v>0.9927653784487878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9992309741618459</v>
+        <v>0.999231528653212</v>
       </c>
     </row>
     <row r="15">
@@ -3462,19 +3462,19 @@
         <v>3127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9208</v>
+        <v>8300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006542831783572535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002018929379337944</v>
+        <v>0.002011525840272836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01926730302769573</v>
+        <v>0.01736627391694225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3483,19 +3483,19 @@
         <v>11554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6457</v>
+        <v>6032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21195</v>
+        <v>20716</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02325357888391725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01299638370584844</v>
+        <v>0.01214029899887016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04265882697331456</v>
+        <v>0.04169488995023732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3504,19 +3504,19 @@
         <v>14680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7596</v>
+        <v>8073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24030</v>
+        <v>23665</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01506047549785375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007792573031752221</v>
+        <v>0.008281973279600627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02465181261979712</v>
+        <v>0.02427795770287465</v>
       </c>
     </row>
     <row r="17">
@@ -3533,19 +3533,19 @@
         <v>474791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468710</v>
+        <v>469618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476953</v>
+        <v>476957</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9934571682164275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9807326969723046</v>
+        <v>0.982633726083059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9979810706206621</v>
+        <v>0.9979884741597271</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -3554,19 +3554,19 @@
         <v>485295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>475654</v>
+        <v>476133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490392</v>
+        <v>490817</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9767464211160828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9573411730266858</v>
+        <v>0.9583051100497629</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9870036162941517</v>
+        <v>0.9878597010011299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>844</v>
@@ -3575,19 +3575,19 @@
         <v>960087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>950737</v>
+        <v>951102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>967171</v>
+        <v>966694</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9849395245021463</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9753481873802028</v>
+        <v>0.975722042297125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9922074269682478</v>
+        <v>0.9917180267203993</v>
       </c>
     </row>
     <row r="18">
@@ -3679,19 +3679,19 @@
         <v>13359</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7183</v>
+        <v>7264</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21976</v>
+        <v>21564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03995702155965715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02148377437478846</v>
+        <v>0.02172634820947201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06573247662625679</v>
+        <v>0.06449971904598442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -3700,19 +3700,19 @@
         <v>22847</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14407</v>
+        <v>15294</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32497</v>
+        <v>35019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06048009618360616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03813661760691992</v>
+        <v>0.04048476656787075</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0860245992285304</v>
+        <v>0.09269995847540012</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -3721,19 +3721,19 @@
         <v>36206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25414</v>
+        <v>25396</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48439</v>
+        <v>50115</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05084443182624486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03568924422490767</v>
+        <v>0.03566408005992588</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06802329915580564</v>
+        <v>0.0703766594295224</v>
       </c>
     </row>
     <row r="20">
@@ -3750,19 +3750,19 @@
         <v>320971</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312354</v>
+        <v>312766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>327147</v>
+        <v>327066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9600429784403428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9342675233737433</v>
+        <v>0.9355002809540156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9785162256252117</v>
+        <v>0.9782736517905281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>332</v>
@@ -3771,19 +3771,19 @@
         <v>354915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>345265</v>
+        <v>342743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>363355</v>
+        <v>362468</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9395199038163938</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9139754007714697</v>
+        <v>0.9073000415246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9618633823930801</v>
+        <v>0.9595152334321293</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>644</v>
@@ -3792,19 +3792,19 @@
         <v>675886</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>663653</v>
+        <v>661977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686678</v>
+        <v>686696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9491555681737551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.931976700844194</v>
+        <v>0.9296233405704772</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9643107557750923</v>
+        <v>0.9643359199400737</v>
       </c>
     </row>
     <row r="21">
@@ -3896,19 +3896,19 @@
         <v>18902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12159</v>
+        <v>12188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27435</v>
+        <v>27547</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07355080702691968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04731050735633283</v>
+        <v>0.04742446121404792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1067499348668381</v>
+        <v>0.1071859726203108</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -3917,19 +3917,19 @@
         <v>40128</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28178</v>
+        <v>28172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54813</v>
+        <v>54778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1002768271010688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07041589258438737</v>
+        <v>0.07040115737751883</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1369739917298101</v>
+        <v>0.1368882369397891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -3938,19 +3938,19 @@
         <v>59030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43462</v>
+        <v>45679</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75898</v>
+        <v>74997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08982509454252706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06613600506336462</v>
+        <v>0.06950916706631037</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1154933803151432</v>
+        <v>0.1141218990768419</v>
       </c>
     </row>
     <row r="23">
@@ -3967,19 +3967,19 @@
         <v>238096</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229563</v>
+        <v>229451</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244839</v>
+        <v>244810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9264491929730803</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8932500651331604</v>
+        <v>0.8928140273796892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9526894926436661</v>
+        <v>0.952575538785952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -3988,19 +3988,19 @@
         <v>360041</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>345356</v>
+        <v>345391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>371991</v>
+        <v>371997</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8997231728989312</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8630260082701899</v>
+        <v>0.8631117630602109</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9295841074156126</v>
+        <v>0.9295988426224812</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>549</v>
@@ -4009,19 +4009,19 @@
         <v>598137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>581269</v>
+        <v>582170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>613705</v>
+        <v>611488</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9101749054574729</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.884506619684857</v>
+        <v>0.8858781009231582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9338639949366354</v>
+        <v>0.9304908329336896</v>
       </c>
     </row>
     <row r="24">
@@ -4113,19 +4113,19 @@
         <v>35388</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01042561161703412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -4134,19 +4134,19 @@
         <v>80465</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02270115731027841</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -4155,19 +4155,19 @@
         <v>115853</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0166962359652568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
     </row>
     <row r="26">
@@ -4184,19 +4184,19 @@
         <v>3358962</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3346911</v>
+        <v>3346354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3369693</v>
+        <v>3369129</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9895743883829659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9860241691607702</v>
+        <v>0.9858600718449951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9927357612847403</v>
+        <v>0.9925696117316694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3268</v>
@@ -4205,19 +4205,19 @@
         <v>3464077</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3443344</v>
+        <v>3443948</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3480856</v>
+        <v>3481981</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9772988426897216</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9714496608093989</v>
+        <v>0.9716200791170525</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9820325749447086</v>
+        <v>0.9823501369793065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6461</v>
@@ -4226,19 +4226,19 @@
         <v>6823039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6801356</v>
+        <v>6798780</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6843697</v>
+        <v>6843011</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9833037640347432</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9801789601253903</v>
+        <v>0.9798077944682461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9862809861157081</v>
+        <v>0.9861820948527803</v>
       </c>
     </row>
     <row r="27">
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12086</v>
+        <v>13426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006796221242378115</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03334065806410146</v>
+        <v>0.03703594368846964</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12525</v>
+        <v>16214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003198358396407536</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01625968178388748</v>
+        <v>0.0210493883844434</v>
       </c>
     </row>
     <row r="5">
@@ -4649,16 +4649,16 @@
         <v>360048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350426</v>
+        <v>349086</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9932037787576218</v>
+        <v>0.9932037787576219</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9666593419358985</v>
+        <v>0.9629640563115301</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4670,16 +4670,16 @@
         <v>767841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757780</v>
+        <v>754091</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9968016416035926</v>
+        <v>0.9968016416035925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9837403182161124</v>
+        <v>0.9789506116155575</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11865</v>
+        <v>13207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005101633005856785</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02488029384980287</v>
+        <v>0.02769493762566048</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12060</v>
+        <v>14897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002487715134461583</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01233139359414924</v>
+        <v>0.015232937931985</v>
       </c>
     </row>
     <row r="8">
@@ -4837,16 +4837,16 @@
         <v>474457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465025</v>
+        <v>463683</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9948983669941431</v>
+        <v>0.9948983669941434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9751197061501972</v>
+        <v>0.9723050623743431</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4871,16 +4871,16 @@
         <v>975540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965913</v>
+        <v>963076</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>977973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9975122848655384</v>
+        <v>0.9975122848655383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9876686064058507</v>
+        <v>0.9847670620680149</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -4991,16 +4991,16 @@
         <v>749</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6379</v>
+        <v>6986</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.003787638361082741</v>
+        <v>0.003787638361082743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00120505950630782</v>
+        <v>0.00120533093663651</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01026352534069111</v>
+        <v>0.01124065241028674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5012,16 +5012,16 @@
         <v>746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6314</v>
+        <v>6356</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.001896881879809576</v>
+        <v>0.001896881879809577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0006011725207623706</v>
+        <v>0.0006010968849509641</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00508772733148548</v>
+        <v>0.005121725815978001</v>
       </c>
     </row>
     <row r="11">
@@ -5051,19 +5051,19 @@
         <v>619134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615109</v>
+        <v>614502</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>620739</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9962123616389172</v>
+        <v>0.9962123616389175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9897364746593089</v>
+        <v>0.988759347589713</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987949404936921</v>
+        <v>0.9987946690633634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1387</v>
@@ -5072,7 +5072,7 @@
         <v>1238615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1234655</v>
+        <v>1234613</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1240223</v>
@@ -5081,10 +5081,10 @@
         <v>0.9981031181201904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9949122726685145</v>
+        <v>0.9948782741840222</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9993988274792376</v>
+        <v>0.999398903115049</v>
       </c>
     </row>
     <row r="12">
@@ -5176,19 +5176,19 @@
         <v>7699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14966</v>
+        <v>14666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01098937413295227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004913847712711037</v>
+        <v>0.004928759234908284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02136135524408394</v>
+        <v>0.02093304397992089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5197,19 +5197,19 @@
         <v>8658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5117</v>
+        <v>4831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13855</v>
+        <v>13963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01175593481444123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00694773199691099</v>
+        <v>0.006559259666965351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01881206765229528</v>
+        <v>0.01895812232022523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5218,19 +5218,19 @@
         <v>16358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10652</v>
+        <v>9801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24911</v>
+        <v>23753</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01138222315744719</v>
+        <v>0.0113822231574472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007411826061508833</v>
+        <v>0.006819917425042067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01733401415469721</v>
+        <v>0.01652816436941234</v>
       </c>
     </row>
     <row r="14">
@@ -5247,19 +5247,19 @@
         <v>692918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685651</v>
+        <v>685951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>697174</v>
+        <v>697164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890106258670478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.97863864475592</v>
+        <v>0.9790669560200792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995086152287289</v>
+        <v>0.9950712407650917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1127</v>
@@ -5268,19 +5268,19 @@
         <v>727837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>722640</v>
+        <v>722532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>731378</v>
+        <v>731664</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9882440651855585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9811879323477047</v>
+        <v>0.9810418776797752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.993052268003089</v>
+        <v>0.9934407403330348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1784</v>
@@ -5289,19 +5289,19 @@
         <v>1420754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1412201</v>
+        <v>1413359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1426460</v>
+        <v>1427311</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9886177768425526</v>
+        <v>0.9886177768425528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9826659858453028</v>
+        <v>0.9834718356305876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925881739384911</v>
+        <v>0.9931800825749579</v>
       </c>
     </row>
     <row r="15">
@@ -5393,19 +5393,19 @@
         <v>17274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10944</v>
+        <v>10742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25989</v>
+        <v>25481</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02839395766213539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01798878240372459</v>
+        <v>0.01765697554536898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04271950760650172</v>
+        <v>0.04188421395355627</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -5414,19 +5414,19 @@
         <v>19087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12933</v>
+        <v>13037</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26086</v>
+        <v>26351</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03149460463209367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02134032386042255</v>
+        <v>0.02151259575531191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04304375515398472</v>
+        <v>0.04348137903007289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -5435,19 +5435,19 @@
         <v>36361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27596</v>
+        <v>27319</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47762</v>
+        <v>47620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02994131393694259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02272387761064869</v>
+        <v>0.02249562331628819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03932996423288502</v>
+        <v>0.03921335707406994</v>
       </c>
     </row>
     <row r="17">
@@ -5464,19 +5464,19 @@
         <v>591085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582370</v>
+        <v>582878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597415</v>
+        <v>597617</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9716060423378647</v>
+        <v>0.9716060423378646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.957280492393498</v>
+        <v>0.9581157860464439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9820112175962754</v>
+        <v>0.9823430244546307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>967</v>
@@ -5485,19 +5485,19 @@
         <v>586948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>579949</v>
+        <v>579684</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>593102</v>
+        <v>592998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9685053953679063</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9569562448460154</v>
+        <v>0.9565186209699272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9786596761395774</v>
+        <v>0.9784874042446883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1608</v>
@@ -5506,19 +5506,19 @@
         <v>1178033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1166632</v>
+        <v>1166774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1186798</v>
+        <v>1187075</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9700586860630575</v>
+        <v>0.9700586860630572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9606700357671152</v>
+        <v>0.9607866429259303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9772761223893515</v>
+        <v>0.9775043766837119</v>
       </c>
     </row>
     <row r="18">
@@ -5610,19 +5610,19 @@
         <v>31042</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23667</v>
+        <v>23038</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41363</v>
+        <v>40568</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07658187010265857</v>
+        <v>0.07658187010265856</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05838835610687902</v>
+        <v>0.0568356644379343</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1020444219430579</v>
+        <v>0.1000830518160468</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -5631,19 +5631,19 @@
         <v>43288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34774</v>
+        <v>35199</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53799</v>
+        <v>53248</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09867073185589394</v>
+        <v>0.09867073185589395</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.079265495577511</v>
+        <v>0.0802332952544494</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.122629999718777</v>
+        <v>0.1213746016344293</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -5652,19 +5652,19 @@
         <v>74330</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62937</v>
+        <v>61928</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87203</v>
+        <v>87485</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0880628803257969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07456538137964475</v>
+        <v>0.07337008558277552</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1033142976121527</v>
+        <v>0.1036491650791162</v>
       </c>
     </row>
     <row r="20">
@@ -5681,19 +5681,19 @@
         <v>374302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363981</v>
+        <v>364776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>381677</v>
+        <v>382306</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9234181298973416</v>
+        <v>0.9234181298973414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8979555780569423</v>
+        <v>0.8999169481839531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9416116438931211</v>
+        <v>0.9431643355620657</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>747</v>
@@ -5702,19 +5702,19 @@
         <v>395420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>384909</v>
+        <v>385460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>403934</v>
+        <v>403509</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9013292681441062</v>
+        <v>0.901329268144106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8773700002812233</v>
+        <v>0.8786253983655705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9207345044224893</v>
+        <v>0.9197667047455506</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1267</v>
@@ -5723,19 +5723,19 @@
         <v>769722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>756849</v>
+        <v>756567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>781115</v>
+        <v>782124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9119371196742031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8966857023878474</v>
+        <v>0.8963508349208839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9254346186203553</v>
+        <v>0.9266299144172244</v>
       </c>
     </row>
     <row r="21">
@@ -5827,19 +5827,19 @@
         <v>51171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41297</v>
+        <v>41606</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61455</v>
+        <v>62139</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.165464335636902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1335371108550402</v>
+        <v>0.1345356513189029</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1987192603083257</v>
+        <v>0.2009306864969328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -5848,19 +5848,19 @@
         <v>89577</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77396</v>
+        <v>78322</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101479</v>
+        <v>103506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1928006307434122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1665820434489895</v>
+        <v>0.1685765442055757</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2184183740191956</v>
+        <v>0.2227811135612796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>278</v>
@@ -5869,19 +5869,19 @@
         <v>140748</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123980</v>
+        <v>126039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156748</v>
+        <v>156999</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1818763355926376</v>
+        <v>0.1818763355926375</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1602085982642285</v>
+        <v>0.1628698023878246</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2025515795859936</v>
+        <v>0.2028763696283346</v>
       </c>
     </row>
     <row r="23">
@@ -5898,19 +5898,19 @@
         <v>258086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247802</v>
+        <v>247118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>267960</v>
+        <v>267651</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.834535664363098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8012807396916743</v>
+        <v>0.7990693135030674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8664628891449598</v>
+        <v>0.8654643486810975</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>696</v>
@@ -5919,19 +5919,19 @@
         <v>375032</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>363130</v>
+        <v>361103</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387213</v>
+        <v>386287</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8071993692565878</v>
+        <v>0.8071993692565876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7815816259808048</v>
+        <v>0.7772188864387205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8334179565510108</v>
+        <v>0.8314234557944242</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1060</v>
@@ -5940,19 +5940,19 @@
         <v>633118</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>617118</v>
+        <v>616867</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>649886</v>
+        <v>647827</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8181236644073624</v>
+        <v>0.8181236644073625</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7974484204140062</v>
+        <v>0.7971236303716652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8397914017357712</v>
+        <v>0.8371301976121752</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         <v>109619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03107340808444805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>312</v>
@@ -6065,19 +6065,19 @@
         <v>165427</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04433941528058168</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>483</v>
@@ -6086,19 +6086,19 @@
         <v>275046</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="26">
@@ -6115,19 +6115,19 @@
         <v>3418123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3396919</v>
+        <v>3400452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3433593</v>
+        <v>3435414</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.968926591915552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9629159349010532</v>
+        <v>0.963917452566977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9733118394240289</v>
+        <v>0.9738279833905882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5045</v>
@@ -6136,19 +6136,19 @@
         <v>3565504</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3544395</v>
+        <v>3541426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3583130</v>
+        <v>3581022</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9556605847194184</v>
+        <v>0.9556605847194181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9500029025944733</v>
+        <v>0.9492069929363209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.960384839932688</v>
+        <v>0.9598200013274735</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8245</v>
@@ -6157,19 +6157,19 @@
         <v>6983626</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6955868</v>
+        <v>6953966</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7007517</v>
+        <v>7006449</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9621079133744845</v>
+        <v>0.9621079133744844</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9582838744608373</v>
+        <v>0.9580217730876607</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9653993021556825</v>
+        <v>0.9652521757809385</v>
       </c>
     </row>
     <row r="27">
